--- a/Training.xlsx
+++ b/Training.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{433A90C6-5EAE-4E6C-A379-8D8A57AAC81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EDB0AD-F4DF-4BF1-8EBD-F644BC27CCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>Transformer</t>
   </si>
@@ -51,12 +51,6 @@
     <t>num_layers</t>
   </si>
   <si>
-    <t>val_loss</t>
-  </si>
-  <si>
-    <t>val accuracy</t>
-  </si>
-  <si>
     <t>dff</t>
   </si>
   <si>
@@ -85,19 +79,37 @@
   </si>
   <si>
     <t>Multi - layer - 3</t>
+  </si>
+  <si>
+    <t>best_val_loss</t>
+  </si>
+  <si>
+    <t>best_val accuracy</t>
+  </si>
+  <si>
+    <t>Batch size</t>
+  </si>
+  <si>
+    <t>Max_len</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -120,8 +132,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,7 +469,7 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -467,31 +480,40 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>15</v>
+      </c>
       <c r="C2">
         <v>4</v>
       </c>
@@ -507,8 +529,17 @@
       <c r="G2">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="1">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="K2">
+        <v>128</v>
+      </c>
+      <c r="L2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -528,9 +559,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -548,9 +579,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -568,9 +599,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -588,9 +619,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -608,9 +639,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -628,7 +659,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -648,7 +679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -668,9 +699,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -688,9 +719,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -708,9 +739,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -728,9 +759,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -748,9 +779,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -768,7 +799,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -810,7 +841,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -830,7 +861,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -850,7 +881,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -870,7 +901,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -890,7 +921,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -910,5 +941,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EDB0AD-F4DF-4BF1-8EBD-F644BC27CCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B229B-1834-43A0-B37F-BC84496A7A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>Transformer</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Max_len</t>
+  </si>
+  <si>
+    <t>Ahnaf has the file 15th epoch file</t>
   </si>
 </sst>
 </file>
@@ -449,9 +452,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -467,9 +470,10 @@
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -507,7 +511,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -538,8 +542,11 @@
       <c r="L2">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -559,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -579,7 +586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -599,7 +606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -619,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -639,7 +646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -659,7 +666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -679,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -699,7 +706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -719,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -739,7 +746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -759,7 +766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -779,7 +786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -799,7 +806,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5B229B-1834-43A0-B37F-BC84496A7A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0285D-74B5-4E81-B178-911EC8776E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -100,19 +100,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Courier New"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,7 +131,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,7 +449,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,6 +544,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
       <c r="C3">
         <v>4</v>
       </c>
@@ -564,6 +561,15 @@
       </c>
       <c r="G3">
         <v>8</v>
+      </c>
+      <c r="I3">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="K3">
+        <v>128</v>
+      </c>
+      <c r="L3">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -585,6 +591,12 @@
       <c r="G4">
         <v>8</v>
       </c>
+      <c r="K4">
+        <v>128</v>
+      </c>
+      <c r="L4">
+        <v>64</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -605,6 +617,12 @@
       <c r="G5">
         <v>8</v>
       </c>
+      <c r="K5">
+        <v>128</v>
+      </c>
+      <c r="L5">
+        <v>64</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -625,6 +643,12 @@
       <c r="G6">
         <v>8</v>
       </c>
+      <c r="K6">
+        <v>128</v>
+      </c>
+      <c r="L6">
+        <v>64</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -645,6 +669,12 @@
       <c r="G7">
         <v>8</v>
       </c>
+      <c r="K7">
+        <v>128</v>
+      </c>
+      <c r="L7">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -665,6 +695,12 @@
       <c r="G8">
         <v>8</v>
       </c>
+      <c r="K8">
+        <v>128</v>
+      </c>
+      <c r="L8">
+        <v>64</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -685,6 +721,12 @@
       <c r="G9">
         <v>8</v>
       </c>
+      <c r="K9">
+        <v>128</v>
+      </c>
+      <c r="L9">
+        <v>64</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -705,6 +747,12 @@
       <c r="G10">
         <v>8</v>
       </c>
+      <c r="K10">
+        <v>128</v>
+      </c>
+      <c r="L10">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -725,6 +773,12 @@
       <c r="G11">
         <v>8</v>
       </c>
+      <c r="K11">
+        <v>128</v>
+      </c>
+      <c r="L11">
+        <v>64</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -745,6 +799,12 @@
       <c r="G12">
         <v>8</v>
       </c>
+      <c r="K12">
+        <v>128</v>
+      </c>
+      <c r="L12">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -765,6 +825,12 @@
       <c r="G13">
         <v>8</v>
       </c>
+      <c r="K13">
+        <v>128</v>
+      </c>
+      <c r="L13">
+        <v>64</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -785,6 +851,12 @@
       <c r="G14">
         <v>8</v>
       </c>
+      <c r="K14">
+        <v>128</v>
+      </c>
+      <c r="L14">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -805,6 +877,12 @@
       <c r="G15">
         <v>8</v>
       </c>
+      <c r="K15">
+        <v>128</v>
+      </c>
+      <c r="L15">
+        <v>64</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -825,8 +903,14 @@
       <c r="G16">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>128</v>
+      </c>
+      <c r="L16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -845,8 +929,14 @@
       <c r="G17">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>128</v>
+      </c>
+      <c r="L17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -865,8 +955,14 @@
       <c r="G18">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>128</v>
+      </c>
+      <c r="L18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -885,8 +981,14 @@
       <c r="G19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>128</v>
+      </c>
+      <c r="L19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -905,8 +1007,14 @@
       <c r="G20">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>128</v>
+      </c>
+      <c r="L20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -925,8 +1033,14 @@
       <c r="G21">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>128</v>
+      </c>
+      <c r="L21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -944,6 +1058,12 @@
       </c>
       <c r="G22">
         <v>8</v>
+      </c>
+      <c r="K22">
+        <v>128</v>
+      </c>
+      <c r="L22">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B0285D-74B5-4E81-B178-911EC8776E6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2644F4-AD13-42C1-865F-2064CF616410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>Transformer</t>
   </si>
@@ -93,7 +93,13 @@
     <t>Max_len</t>
   </si>
   <si>
-    <t>Ahnaf has the file 15th epoch file</t>
+    <t>Train time</t>
+  </si>
+  <si>
+    <t>44.5 minute per epoch</t>
+  </si>
+  <si>
+    <t>45.5 minute per epoch</t>
   </si>
 </sst>
 </file>
@@ -449,7 +455,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,6 +510,9 @@
       <c r="L1" t="s">
         <v>18</v>
       </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -537,7 +546,7 @@
         <v>64</v>
       </c>
       <c r="M2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -570,6 +579,9 @@
       </c>
       <c r="L3">
         <v>64</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2644F4-AD13-42C1-865F-2064CF616410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD624ADA-A39F-4CB2-A859-2A85EC53C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>Transformer</t>
   </si>
@@ -100,6 +100,15 @@
   </si>
   <si>
     <t>45.5 minute per epoch</t>
+  </si>
+  <si>
+    <t>coudnt download the model only the results are present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">next in line </t>
+  </si>
+  <si>
+    <t>next in line</t>
   </si>
 </sst>
 </file>
@@ -115,12 +124,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -135,9 +162,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +503,7 @@
     <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -514,103 +544,118 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>15</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2">
-        <v>512</v>
-      </c>
-      <c r="F2">
-        <v>256</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1">
+      <c r="D2" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>512</v>
+      </c>
+      <c r="F2" s="2">
+        <v>256</v>
+      </c>
+      <c r="G2" s="2">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3">
         <v>0.59289999999999998</v>
       </c>
-      <c r="K2">
-        <v>128</v>
-      </c>
-      <c r="L2">
-        <v>64</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2">
+        <v>128</v>
+      </c>
+      <c r="L2" s="2">
+        <v>64</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>15</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3">
-        <v>512</v>
-      </c>
-      <c r="F3">
-        <v>256</v>
-      </c>
-      <c r="G3">
-        <v>8</v>
-      </c>
-      <c r="I3">
+      <c r="D3" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>512</v>
+      </c>
+      <c r="F3" s="1">
+        <v>256</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
         <v>0.59799999999999998</v>
       </c>
-      <c r="K3">
-        <v>128</v>
-      </c>
-      <c r="L3">
-        <v>64</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>128</v>
+      </c>
+      <c r="L3" s="1">
+        <v>64</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="N3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4">
-        <v>512</v>
-      </c>
-      <c r="F4">
-        <v>256</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>128</v>
-      </c>
-      <c r="L4">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>512</v>
+      </c>
+      <c r="F4" s="4">
+        <v>256</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4">
+        <v>128</v>
+      </c>
+      <c r="L4" s="4">
+        <v>64</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -636,33 +681,41 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C6">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>4</v>
       </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6">
-        <v>512</v>
-      </c>
-      <c r="F6">
-        <v>256</v>
-      </c>
-      <c r="G6">
-        <v>8</v>
-      </c>
-      <c r="K6">
-        <v>128</v>
-      </c>
-      <c r="L6">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>512</v>
+      </c>
+      <c r="F6" s="4">
+        <v>256</v>
+      </c>
+      <c r="G6" s="4">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4">
+        <v>128</v>
+      </c>
+      <c r="L6" s="4">
+        <v>64</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -688,7 +741,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -714,7 +767,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -740,7 +793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -766,7 +819,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -792,7 +845,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -818,7 +871,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -844,7 +897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -870,7 +923,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -896,7 +949,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\OneDrive\Desktop\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD624ADA-A39F-4CB2-A859-2A85EC53C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8921A-BA11-4FAC-B259-D81B004F8B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -162,11 +162,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -186,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -226,7 +225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -332,7 +331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -474,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -485,25 +484,25 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="A7" sqref="A7:A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.44140625" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -544,7 +543,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -567,7 +566,7 @@
         <v>8</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="3">
+      <c r="I2" s="2">
         <v>0.59289999999999998</v>
       </c>
       <c r="J2" s="2"/>
@@ -581,7 +580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -621,41 +620,43 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>512</v>
-      </c>
-      <c r="F4" s="4">
-        <v>256</v>
-      </c>
-      <c r="G4" s="4">
-        <v>8</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4">
-        <v>128</v>
-      </c>
-      <c r="L4" s="4">
-        <v>64</v>
-      </c>
-      <c r="M4" s="4"/>
+      <c r="D4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>512</v>
+      </c>
+      <c r="F4" s="3">
+        <v>256</v>
+      </c>
+      <c r="G4" s="3">
+        <v>8</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>128</v>
+      </c>
+      <c r="L4" s="3">
+        <v>64</v>
+      </c>
+      <c r="M4" s="3">
+        <v>44.5</v>
+      </c>
       <c r="N4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -681,41 +682,43 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>512</v>
-      </c>
-      <c r="F6" s="4">
-        <v>256</v>
-      </c>
-      <c r="G6" s="4">
-        <v>8</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4">
-        <v>128</v>
-      </c>
-      <c r="L6" s="4">
-        <v>64</v>
-      </c>
-      <c r="M6" s="4"/>
+      <c r="D6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>512</v>
+      </c>
+      <c r="F6" s="3">
+        <v>256</v>
+      </c>
+      <c r="G6" s="3">
+        <v>8</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3">
+        <v>128</v>
+      </c>
+      <c r="L6" s="3">
+        <v>64</v>
+      </c>
+      <c r="M6" s="3">
+        <v>45</v>
+      </c>
       <c r="N6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -741,7 +744,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -767,7 +770,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -793,7 +796,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -819,7 +822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -845,7 +848,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -871,7 +874,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -897,7 +900,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -923,7 +926,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -949,7 +952,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -975,7 +978,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -1001,7 +1004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1027,7 +1030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1053,7 +1056,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD624ADA-A39F-4CB2-A859-2A85EC53C52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3206D7-0E7C-4550-8E67-A412B8D8B239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -642,7 +642,9 @@
         <v>8</v>
       </c>
       <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
+      <c r="I4" s="4">
+        <v>0.61860000000000004</v>
+      </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4">
         <v>128</v>
@@ -702,7 +704,9 @@
         <v>8</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="I6" s="4">
+        <v>0.61780000000000002</v>
+      </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
         <v>128</v>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\OneDrive\Desktop\Thesis_github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C8921A-BA11-4FAC-B259-D81B004F8B69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2B1C7-3672-4B8C-8852-86BF68319B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>Transformer</t>
   </si>
@@ -81,34 +81,13 @@
     <t>Multi - layer - 3</t>
   </si>
   <si>
-    <t>best_val_loss</t>
-  </si>
-  <si>
-    <t>best_val accuracy</t>
-  </si>
-  <si>
     <t>Batch size</t>
   </si>
   <si>
-    <t>Max_len</t>
-  </si>
-  <si>
     <t>Train time</t>
   </si>
   <si>
-    <t>44.5 minute per epoch</t>
-  </si>
-  <si>
-    <t>45.5 minute per epoch</t>
-  </si>
-  <si>
-    <t>coudnt download the model only the results are present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">next in line </t>
-  </si>
-  <si>
-    <t>next in line</t>
+    <t>Max_token</t>
   </si>
 </sst>
 </file>
@@ -124,30 +103,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -162,11 +123,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -185,9 +144,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +184,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +290,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,28 +440,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A15"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" customWidth="1"/>
-    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="18.109375" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="29.44140625" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -528,64 +488,57 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2">
-        <v>15</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B2" s="1">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>512</v>
-      </c>
-      <c r="F2" s="2">
-        <v>256</v>
-      </c>
-      <c r="G2" s="2">
-        <v>8</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2">
-        <v>128</v>
-      </c>
-      <c r="L2" s="2">
-        <v>64</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F2" s="1">
+        <v>512</v>
+      </c>
+      <c r="G2" s="1">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>128</v>
+      </c>
+      <c r="I2" s="1">
+        <v>64</v>
+      </c>
+      <c r="J2" s="1">
+        <v>17.96</v>
+      </c>
+      <c r="K2" s="1">
+        <v>8748</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>4</v>
@@ -594,131 +547,130 @@
         <v>0.1</v>
       </c>
       <c r="E3" s="1">
-        <v>512</v>
+        <v>2048</v>
       </c>
       <c r="F3" s="1">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>128</v>
+      </c>
+      <c r="I3" s="1">
+        <v>64</v>
+      </c>
+      <c r="J3" s="1">
+        <v>11.47</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7554</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1">
         <v>8</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>0.59799999999999998</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>128</v>
-      </c>
-      <c r="L3" s="1">
-        <v>64</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>4</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E4" s="3">
-        <v>512</v>
-      </c>
-      <c r="F4" s="3">
-        <v>256</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F4" s="1">
+        <v>512</v>
+      </c>
+      <c r="G4" s="1">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1">
+        <v>128</v>
+      </c>
+      <c r="I4" s="1">
+        <v>64</v>
+      </c>
+      <c r="J4" s="1">
+        <v>15.11</v>
+      </c>
+      <c r="K4" s="1">
+        <v>8067</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F5" s="1">
+        <v>512</v>
+      </c>
+      <c r="G5" s="1">
+        <v>6</v>
+      </c>
+      <c r="H5" s="1">
+        <v>128</v>
+      </c>
+      <c r="I5" s="1">
+        <v>64</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3">
-        <v>128</v>
-      </c>
-      <c r="L4" s="3">
-        <v>64</v>
-      </c>
-      <c r="M4" s="3">
-        <v>44.5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
+      <c r="C6" s="1">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5">
-        <v>512</v>
-      </c>
-      <c r="F5">
-        <v>256</v>
-      </c>
-      <c r="G5">
-        <v>8</v>
-      </c>
-      <c r="K5">
-        <v>128</v>
-      </c>
-      <c r="L5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>512</v>
-      </c>
-      <c r="F6" s="3">
-        <v>256</v>
-      </c>
-      <c r="G6" s="3">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3">
-        <v>128</v>
-      </c>
-      <c r="L6" s="3">
-        <v>64</v>
-      </c>
-      <c r="M6" s="3">
-        <v>45</v>
-      </c>
-      <c r="N6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="D6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F6" s="1">
+        <v>512</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>128</v>
+      </c>
+      <c r="I6" s="1">
+        <v>64</v>
+      </c>
+      <c r="J6" s="1">
+        <v>17.75</v>
+      </c>
+      <c r="K6" s="1">
+        <v>7333</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -728,23 +680,23 @@
       <c r="D7">
         <v>0.1</v>
       </c>
-      <c r="E7">
-        <v>512</v>
-      </c>
-      <c r="F7">
-        <v>256</v>
-      </c>
-      <c r="G7">
-        <v>8</v>
-      </c>
-      <c r="K7">
-        <v>128</v>
-      </c>
-      <c r="L7">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E7" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F7" s="1">
+        <v>512</v>
+      </c>
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7">
+        <v>128</v>
+      </c>
+      <c r="I7">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -754,23 +706,23 @@
       <c r="D8">
         <v>0.1</v>
       </c>
-      <c r="E8">
-        <v>512</v>
-      </c>
-      <c r="F8">
-        <v>256</v>
-      </c>
-      <c r="G8">
-        <v>8</v>
-      </c>
-      <c r="K8">
-        <v>128</v>
-      </c>
-      <c r="L8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E8" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F8" s="1">
+        <v>512</v>
+      </c>
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>128</v>
+      </c>
+      <c r="I8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -780,23 +732,23 @@
       <c r="D9">
         <v>0.1</v>
       </c>
-      <c r="E9">
-        <v>512</v>
-      </c>
-      <c r="F9">
-        <v>256</v>
-      </c>
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="K9">
-        <v>128</v>
-      </c>
-      <c r="L9">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E9" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F9" s="1">
+        <v>512</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>128</v>
+      </c>
+      <c r="I9">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -806,23 +758,23 @@
       <c r="D10">
         <v>0.1</v>
       </c>
-      <c r="E10">
-        <v>512</v>
-      </c>
-      <c r="F10">
-        <v>256</v>
-      </c>
-      <c r="G10">
-        <v>8</v>
-      </c>
-      <c r="K10">
-        <v>128</v>
-      </c>
-      <c r="L10">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E10" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F10" s="1">
+        <v>512</v>
+      </c>
+      <c r="G10" s="1">
+        <v>6</v>
+      </c>
+      <c r="H10">
+        <v>128</v>
+      </c>
+      <c r="I10">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -832,23 +784,23 @@
       <c r="D11">
         <v>0.1</v>
       </c>
-      <c r="E11">
-        <v>512</v>
-      </c>
-      <c r="F11">
-        <v>256</v>
-      </c>
-      <c r="G11">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>128</v>
-      </c>
-      <c r="L11">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E11" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F11" s="1">
+        <v>512</v>
+      </c>
+      <c r="G11" s="1">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>128</v>
+      </c>
+      <c r="I11">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -858,23 +810,23 @@
       <c r="D12">
         <v>0.1</v>
       </c>
-      <c r="E12">
-        <v>512</v>
-      </c>
-      <c r="F12">
-        <v>256</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="K12">
-        <v>128</v>
-      </c>
-      <c r="L12">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E12" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F12" s="1">
+        <v>512</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>128</v>
+      </c>
+      <c r="I12">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -884,23 +836,23 @@
       <c r="D13">
         <v>0.1</v>
       </c>
-      <c r="E13">
-        <v>512</v>
-      </c>
-      <c r="F13">
-        <v>256</v>
-      </c>
-      <c r="G13">
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <v>128</v>
-      </c>
-      <c r="L13">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E13" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F13" s="1">
+        <v>512</v>
+      </c>
+      <c r="G13" s="1">
+        <v>6</v>
+      </c>
+      <c r="H13">
+        <v>128</v>
+      </c>
+      <c r="I13">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -910,23 +862,23 @@
       <c r="D14">
         <v>0.1</v>
       </c>
-      <c r="E14">
-        <v>512</v>
-      </c>
-      <c r="F14">
-        <v>256</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="K14">
-        <v>128</v>
-      </c>
-      <c r="L14">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E14" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F14" s="1">
+        <v>512</v>
+      </c>
+      <c r="G14" s="1">
+        <v>6</v>
+      </c>
+      <c r="H14">
+        <v>128</v>
+      </c>
+      <c r="I14">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -936,23 +888,23 @@
       <c r="D15">
         <v>0.1</v>
       </c>
-      <c r="E15">
-        <v>512</v>
-      </c>
-      <c r="F15">
-        <v>256</v>
-      </c>
-      <c r="G15">
-        <v>8</v>
-      </c>
-      <c r="K15">
-        <v>128</v>
-      </c>
-      <c r="L15">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="E15" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F15" s="1">
+        <v>512</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>128</v>
+      </c>
+      <c r="I15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -962,23 +914,23 @@
       <c r="D16">
         <v>0.1</v>
       </c>
-      <c r="E16">
-        <v>512</v>
-      </c>
-      <c r="F16">
-        <v>256</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>128</v>
-      </c>
-      <c r="L16">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E16" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F16" s="1">
+        <v>512</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>128</v>
+      </c>
+      <c r="I16">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>1</v>
       </c>
@@ -988,23 +940,23 @@
       <c r="D17">
         <v>0.1</v>
       </c>
-      <c r="E17">
-        <v>512</v>
-      </c>
-      <c r="F17">
-        <v>256</v>
-      </c>
-      <c r="G17">
-        <v>8</v>
-      </c>
-      <c r="K17">
-        <v>128</v>
-      </c>
-      <c r="L17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E17" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F17" s="1">
+        <v>512</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>128</v>
+      </c>
+      <c r="I17">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -1014,23 +966,23 @@
       <c r="D18">
         <v>0.1</v>
       </c>
-      <c r="E18">
-        <v>512</v>
-      </c>
-      <c r="F18">
-        <v>256</v>
-      </c>
-      <c r="G18">
-        <v>8</v>
-      </c>
-      <c r="K18">
-        <v>128</v>
-      </c>
-      <c r="L18">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E18" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F18" s="1">
+        <v>512</v>
+      </c>
+      <c r="G18" s="1">
+        <v>6</v>
+      </c>
+      <c r="H18">
+        <v>128</v>
+      </c>
+      <c r="I18">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -1040,23 +992,23 @@
       <c r="D19">
         <v>0.1</v>
       </c>
-      <c r="E19">
-        <v>512</v>
-      </c>
-      <c r="F19">
-        <v>256</v>
-      </c>
-      <c r="G19">
-        <v>8</v>
-      </c>
-      <c r="K19">
-        <v>128</v>
-      </c>
-      <c r="L19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E19" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F19" s="1">
+        <v>512</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>128</v>
+      </c>
+      <c r="I19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1066,23 +1018,23 @@
       <c r="D20">
         <v>0.1</v>
       </c>
-      <c r="E20">
-        <v>512</v>
-      </c>
-      <c r="F20">
-        <v>256</v>
-      </c>
-      <c r="G20">
-        <v>8</v>
-      </c>
-      <c r="K20">
-        <v>128</v>
-      </c>
-      <c r="L20">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E20" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F20" s="1">
+        <v>512</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6</v>
+      </c>
+      <c r="H20">
+        <v>128</v>
+      </c>
+      <c r="I20">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>11</v>
       </c>
@@ -1092,23 +1044,23 @@
       <c r="D21">
         <v>0.1</v>
       </c>
-      <c r="E21">
-        <v>512</v>
-      </c>
-      <c r="F21">
-        <v>256</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="K21">
-        <v>128</v>
-      </c>
-      <c r="L21">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="E21" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F21" s="1">
+        <v>512</v>
+      </c>
+      <c r="G21" s="1">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>128</v>
+      </c>
+      <c r="I21">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1118,19 +1070,19 @@
       <c r="D22">
         <v>0.1</v>
       </c>
-      <c r="E22">
-        <v>512</v>
-      </c>
-      <c r="F22">
-        <v>256</v>
-      </c>
-      <c r="G22">
-        <v>8</v>
-      </c>
-      <c r="K22">
-        <v>128</v>
-      </c>
-      <c r="L22">
+      <c r="E22" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F22" s="1">
+        <v>512</v>
+      </c>
+      <c r="G22" s="1">
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <v>128</v>
+      </c>
+      <c r="I22">
         <v>64</v>
       </c>
     </row>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64A2B1C7-3672-4B8C-8852-86BF68319B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608392A-3128-4EE3-B0CE-A911974C7072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,6 +695,12 @@
       <c r="I7">
         <v>64</v>
       </c>
+      <c r="J7" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>7536</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -720,6 +726,12 @@
       </c>
       <c r="I8">
         <v>64</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="K8" s="1">
+        <v>6420</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F608392A-3128-4EE3-B0CE-A911974C7072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E73B8C-006D-4BA4-94E4-599212408547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>Transformer</t>
   </si>
@@ -443,7 +443,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -866,10 +866,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D14">
         <v>0.1</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D15">
         <v>0.1</v>
@@ -918,7 +918,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -994,109 +994,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
-        <v>8</v>
-      </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F19" s="1">
-        <v>512</v>
-      </c>
-      <c r="G19" s="1">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>128</v>
-      </c>
-      <c r="I19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>8</v>
-      </c>
-      <c r="D20">
-        <v>0.1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F20" s="1">
-        <v>512</v>
-      </c>
-      <c r="G20" s="1">
-        <v>6</v>
-      </c>
-      <c r="H20">
-        <v>128</v>
-      </c>
-      <c r="I20">
-        <v>64</v>
-      </c>
-    </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>0.1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F21" s="1">
-        <v>512</v>
-      </c>
-      <c r="G21" s="1">
-        <v>6</v>
-      </c>
-      <c r="H21">
-        <v>128</v>
-      </c>
-      <c r="I21">
-        <v>64</v>
-      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22">
-        <v>8</v>
-      </c>
-      <c r="D22">
-        <v>0.1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F22" s="1">
-        <v>512</v>
-      </c>
-      <c r="G22" s="1">
-        <v>6</v>
-      </c>
-      <c r="H22">
-        <v>128</v>
-      </c>
-      <c r="I22">
-        <v>64</v>
-      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65E73B8C-006D-4BA4-94E4-599212408547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4253E4-867D-44BA-A2EF-72942FA7A78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Transformer</t>
   </si>
@@ -88,6 +88,66 @@
   </si>
   <si>
     <t>Max_token</t>
+  </si>
+  <si>
+    <t>JSD</t>
+  </si>
+  <si>
+    <t>Sparsity</t>
+  </si>
+  <si>
+    <t>Inference time</t>
+  </si>
+  <si>
+    <t>Total time needed</t>
+  </si>
+  <si>
+    <t>17 x 3</t>
+  </si>
+  <si>
+    <t>1800+1200</t>
+  </si>
+  <si>
+    <t>1st callback load save</t>
+  </si>
+  <si>
+    <t>2nd best model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3rd inference code </t>
+  </si>
+  <si>
+    <t>4th create 17 ipynb files for all model</t>
+  </si>
+  <si>
+    <t>5th load drive to tokenizer</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>M-2</t>
+  </si>
+  <si>
+    <t>M-3</t>
+  </si>
+  <si>
+    <t>G-1</t>
+  </si>
+  <si>
+    <t>G-2</t>
+  </si>
+  <si>
+    <t>G-3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>H8</t>
   </si>
 </sst>
 </file>
@@ -440,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,15 +514,17 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" customWidth="1"/>
     <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" customWidth="1"/>
     <col min="9" max="9" width="18.7109375" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
     <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="29.42578125" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -496,8 +558,17 @@
       <c r="K1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +604,7 @@
       </c>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -569,7 +640,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -605,7 +676,7 @@
       </c>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -634,7 +705,7 @@
       <c r="J5" s="1"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -670,7 +741,7 @@
       </c>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -702,7 +773,7 @@
         <v>7536</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -734,7 +805,7 @@
         <v>6420</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -760,7 +831,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -786,7 +857,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -812,7 +883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -838,7 +909,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -864,25 +935,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
       <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F14" s="1">
+        <v>512</v>
+      </c>
+      <c r="G14" s="1">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>0.1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F14" s="1">
-        <v>512</v>
-      </c>
-      <c r="G14" s="1">
-        <v>6</v>
-      </c>
       <c r="H14">
         <v>128</v>
       </c>
@@ -890,25 +961,25 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>1</v>
       </c>
       <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F15" s="1">
+        <v>512</v>
+      </c>
+      <c r="G15" s="1">
         <v>8</v>
       </c>
-      <c r="D15">
-        <v>0.1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F15" s="1">
-        <v>512</v>
-      </c>
-      <c r="G15" s="1">
-        <v>6</v>
-      </c>
       <c r="H15">
         <v>128</v>
       </c>
@@ -916,24 +987,24 @@
         <v>64</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F16" s="1">
+        <v>512</v>
+      </c>
+      <c r="G16" s="1">
         <v>8</v>
-      </c>
-      <c r="D16">
-        <v>0.1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F16" s="1">
-        <v>512</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6</v>
       </c>
       <c r="H16">
         <v>128</v>
@@ -947,19 +1018,19 @@
         <v>14</v>
       </c>
       <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F17" s="1">
+        <v>512</v>
+      </c>
+      <c r="G17" s="1">
         <v>8</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F17" s="1">
-        <v>512</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6</v>
       </c>
       <c r="H17">
         <v>128</v>
@@ -973,19 +1044,19 @@
         <v>10</v>
       </c>
       <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F18" s="1">
+        <v>512</v>
+      </c>
+      <c r="G18" s="1">
         <v>8</v>
-      </c>
-      <c r="D18">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F18" s="1">
-        <v>512</v>
-      </c>
-      <c r="G18" s="1">
-        <v>6</v>
       </c>
       <c r="H18">
         <v>128</v>
@@ -1000,9 +1071,98 @@
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" s="1">
+        <v>63</v>
+      </c>
+      <c r="F22" s="1">
+        <v>200</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4253E4-867D-44BA-A2EF-72942FA7A78E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD1D26-4438-4547-B419-97B204799045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
   <si>
     <t>Transformer</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Batch size</t>
   </si>
   <si>
-    <t>Train time</t>
-  </si>
-  <si>
     <t>Max_token</t>
   </si>
   <si>
@@ -99,15 +96,6 @@
     <t>Inference time</t>
   </si>
   <si>
-    <t>Total time needed</t>
-  </si>
-  <si>
-    <t>17 x 3</t>
-  </si>
-  <si>
-    <t>1800+1200</t>
-  </si>
-  <si>
     <t>1st callback load save</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t xml:space="preserve">3rd inference code </t>
   </si>
   <si>
-    <t>4th create 17 ipynb files for all model</t>
-  </si>
-  <si>
     <t>5th load drive to tokenizer</t>
   </si>
   <si>
@@ -129,32 +114,101 @@
     <t>R</t>
   </si>
   <si>
-    <t>M-2</t>
-  </si>
-  <si>
-    <t>M-3</t>
-  </si>
-  <si>
-    <t>G-1</t>
-  </si>
-  <si>
-    <t>G-2</t>
-  </si>
-  <si>
-    <t>G-3</t>
-  </si>
-  <si>
     <t>E4</t>
   </si>
   <si>
     <t>H8</t>
+  </si>
+  <si>
+    <t>tokenizer loading code changed</t>
+  </si>
+  <si>
+    <t>remove inference and rest of the code from all files</t>
+  </si>
+  <si>
+    <t>saving model code changed</t>
+  </si>
+  <si>
+    <t>remove loadandsavecallback from all models</t>
+  </si>
+  <si>
+    <t>import zipfile</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Model Name</t>
+  </si>
+  <si>
+    <t>Train time (s)</t>
+  </si>
+  <si>
+    <t>T_E4_H6</t>
+  </si>
+  <si>
+    <t>R_E4_H6</t>
+  </si>
+  <si>
+    <t>T_E6_H6</t>
+  </si>
+  <si>
+    <t>R_E6_H6</t>
+  </si>
+  <si>
+    <t>T_E4_H8</t>
+  </si>
+  <si>
+    <t>R_E4_H8</t>
+  </si>
+  <si>
+    <t>M2_E4_H6</t>
+  </si>
+  <si>
+    <t>M2_E6_H6</t>
+  </si>
+  <si>
+    <t>M2_E4_H8</t>
+  </si>
+  <si>
+    <t>M3_E4_H6</t>
+  </si>
+  <si>
+    <t>G1_E4_H6</t>
+  </si>
+  <si>
+    <t>G2_E4_H6</t>
+  </si>
+  <si>
+    <t>G3_E4_H6</t>
+  </si>
+  <si>
+    <t>G1_E6_H6</t>
+  </si>
+  <si>
+    <t>G1_E4_H8</t>
+  </si>
+  <si>
+    <t>4th create 15 ipynb files for all model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,13 +216,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,14 +246,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -500,31 +569,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
-  <dimension ref="A1:N36"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" customWidth="1"/>
-    <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="17.5703125" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="17.85546875" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="33.85546875" customWidth="1"/>
+    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="8.42578125" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" customWidth="1"/>
+    <col min="12" max="12" width="6" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -550,25 +620,28 @@
         <v>15</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="L1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,8 +676,11 @@
         <v>8748</v>
       </c>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -639,8 +715,11 @@
         <v>7554</v>
       </c>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -675,8 +754,11 @@
         <v>8067</v>
       </c>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -704,8 +786,11 @@
       </c>
       <c r="J5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -740,8 +825,11 @@
         <v>7333</v>
       </c>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -772,8 +860,11 @@
       <c r="K7" s="1">
         <v>7536</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -804,8 +895,11 @@
       <c r="K8" s="1">
         <v>6420</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -830,8 +924,11 @@
       <c r="I9">
         <v>64</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -856,8 +953,11 @@
       <c r="I10">
         <v>64</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -882,10 +982,13 @@
       <c r="I11">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -908,13 +1011,16 @@
       <c r="I12">
         <v>64</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>0.1</v>
@@ -926,7 +1032,7 @@
         <v>512</v>
       </c>
       <c r="G13" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <v>128</v>
@@ -934,10 +1040,13 @@
       <c r="I13">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -960,10 +1069,13 @@
       <c r="I14">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -986,10 +1098,13 @@
       <c r="I15">
         <v>64</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1012,156 +1127,99 @@
       <c r="I16">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17">
-        <v>4</v>
-      </c>
-      <c r="D17">
-        <v>0.1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F17" s="1">
-        <v>512</v>
-      </c>
-      <c r="G17" s="1">
-        <v>8</v>
-      </c>
-      <c r="H17">
-        <v>128</v>
-      </c>
-      <c r="I17">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>4</v>
-      </c>
-      <c r="D18">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F18" s="1">
-        <v>512</v>
-      </c>
-      <c r="G18" s="1">
-        <v>8</v>
-      </c>
-      <c r="H18">
-        <v>128</v>
-      </c>
-      <c r="I18">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="O16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C22">
-        <v>51</v>
-      </c>
-      <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22" s="1">
-        <v>63</v>
-      </c>
-      <c r="F22" s="1">
-        <v>200</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G23" t="s">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BD1D26-4438-4547-B419-97B204799045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D394832D-2526-425B-A3D3-37EAB9ECE796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
+    <workbookView xWindow="7320" yWindow="-45" windowWidth="21600" windowHeight="11295" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="56">
-  <si>
-    <t>Transformer</t>
-  </si>
-  <si>
-    <t>Realformer</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Model</t>
   </si>
@@ -66,21 +60,6 @@
     <t>BLEU</t>
   </si>
   <si>
-    <t>gated realformer - 1 deep</t>
-  </si>
-  <si>
-    <t>gated realformer - 2 deep</t>
-  </si>
-  <si>
-    <t>gated realformer - 3 deep</t>
-  </si>
-  <si>
-    <t>Multi - layer - 2</t>
-  </si>
-  <si>
-    <t>Multi - layer - 3</t>
-  </si>
-  <si>
     <t>Batch size</t>
   </si>
   <si>
@@ -96,60 +75,6 @@
     <t>Inference time</t>
   </si>
   <si>
-    <t>1st callback load save</t>
-  </si>
-  <si>
-    <t>2nd best model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3rd inference code </t>
-  </si>
-  <si>
-    <t>5th load drive to tokenizer</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>tokenizer loading code changed</t>
-  </si>
-  <si>
-    <t>remove inference and rest of the code from all files</t>
-  </si>
-  <si>
-    <t>saving model code changed</t>
-  </si>
-  <si>
-    <t>remove loadandsavecallback from all models</t>
-  </si>
-  <si>
-    <t>import zipfile</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>M3</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
     <t>Model Name</t>
   </si>
   <si>
@@ -201,14 +126,20 @@
     <t>G1_E4_H8</t>
   </si>
   <si>
-    <t>4th create 15 ipynb files for all model</t>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>Loss</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,25 +147,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -246,17 +165,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,16 +487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" customWidth="1"/>
-    <col min="2" max="2" width="46.5703125" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="8.85546875" customWidth="1"/>
     <col min="5" max="5" width="5.7109375" customWidth="1"/>
@@ -586,64 +504,75 @@
     <col min="7" max="7" width="5.85546875" customWidth="1"/>
     <col min="8" max="8" width="9.140625" customWidth="1"/>
     <col min="9" max="9" width="10.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" customWidth="1"/>
     <col min="11" max="11" width="12.7109375" customWidth="1"/>
     <col min="12" max="12" width="6" customWidth="1"/>
     <col min="13" max="13" width="9.28515625" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.28515625" customWidth="1"/>
+    <col min="15" max="15" width="8.5703125" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>9</v>
@@ -670,19 +599,30 @@
         <v>64</v>
       </c>
       <c r="J2" s="1">
-        <v>17.96</v>
+        <v>16.515799999999999</v>
       </c>
       <c r="K2" s="1">
-        <v>8748</v>
-      </c>
-      <c r="M2" s="1"/>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>1663</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5.0110000000000001</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1866.64</v>
+      </c>
+      <c r="O2">
+        <v>0.57909999999999995</v>
+      </c>
+      <c r="P2">
+        <v>2.3126000000000002</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
       </c>
       <c r="B3" s="1">
         <v>8</v>
@@ -709,19 +649,30 @@
         <v>64</v>
       </c>
       <c r="J3" s="1">
-        <v>11.47</v>
+        <v>11.478</v>
       </c>
       <c r="K3" s="1">
-        <v>7554</v>
-      </c>
-      <c r="M3" s="1"/>
-      <c r="O3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>1512</v>
+      </c>
+      <c r="M3" s="1">
+        <v>5.3449999999999998</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1865.6</v>
+      </c>
+      <c r="O3">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="P3">
+        <v>2.2867999999999999</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
@@ -748,21 +699,34 @@
         <v>64</v>
       </c>
       <c r="J4" s="1">
-        <v>15.11</v>
+        <v>17.164000000000001</v>
       </c>
       <c r="K4" s="1">
-        <v>8067</v>
-      </c>
-      <c r="M4" s="1"/>
-      <c r="O4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="1"/>
+        <v>1371</v>
+      </c>
+      <c r="M4" s="1">
+        <v>5.95</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2002.6</v>
+      </c>
+      <c r="O4">
+        <v>0.58250000000000002</v>
+      </c>
+      <c r="P4">
+        <v>2.2932999999999999</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>8</v>
+      </c>
       <c r="C5" s="1">
         <v>4</v>
       </c>
@@ -784,15 +748,31 @@
       <c r="I5" s="1">
         <v>64</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="O5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
+      <c r="J5" s="1">
+        <v>15.51</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1512</v>
+      </c>
+      <c r="M5" s="1">
+        <v>5.2789999999999999</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1953.5</v>
+      </c>
+      <c r="O5">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="P5">
+        <v>2.3027000000000002</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>9.07</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
@@ -819,19 +799,33 @@
         <v>64</v>
       </c>
       <c r="J6" s="1">
-        <v>17.75</v>
+        <v>25.405999999999999</v>
       </c>
       <c r="K6" s="1">
-        <v>7333</v>
-      </c>
-      <c r="M6" s="1"/>
-      <c r="O6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1545</v>
+      </c>
+      <c r="M6" s="1">
+        <v>5.4580000000000002</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2095.1999999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.58289999999999997</v>
+      </c>
+      <c r="P6">
+        <v>2.2951999999999999</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>7.09</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -855,18 +849,33 @@
         <v>64</v>
       </c>
       <c r="J7" s="1">
-        <v>15.1</v>
+        <v>14.53</v>
       </c>
       <c r="K7" s="1">
-        <v>7536</v>
-      </c>
-      <c r="O7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1543</v>
+      </c>
+      <c r="M7" s="1">
+        <v>5.4669999999999996</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1732.1</v>
+      </c>
+      <c r="O7">
+        <v>0.58760000000000001</v>
+      </c>
+      <c r="P7">
+        <v>2.2591999999999999</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="B8" s="1">
+        <v>8</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -890,47 +899,83 @@
         <v>64</v>
       </c>
       <c r="J8" s="1">
-        <v>10.6</v>
+        <v>20.512</v>
       </c>
       <c r="K8" s="1">
-        <v>6420</v>
-      </c>
-      <c r="O8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1548</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5.4039999999999999</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2111.4</v>
+      </c>
+      <c r="O8">
+        <v>0.59040000000000004</v>
+      </c>
+      <c r="P8">
+        <v>2.2652000000000001</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2048</v>
+      </c>
+      <c r="F9" s="1">
+        <v>512</v>
+      </c>
+      <c r="G9" s="1">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>128</v>
+      </c>
+      <c r="I9">
+        <v>64</v>
+      </c>
+      <c r="J9" s="1">
+        <v>21.934000000000001</v>
+      </c>
+      <c r="K9" s="1">
+        <v>2432</v>
+      </c>
+      <c r="M9">
+        <v>5.1029999999999998</v>
+      </c>
+      <c r="N9">
+        <v>2851.2</v>
+      </c>
+      <c r="O9">
+        <v>0.5746</v>
+      </c>
+      <c r="P9">
+        <v>2.2917000000000001</v>
+      </c>
+      <c r="Q9" s="2">
         <v>0</v>
       </c>
-      <c r="C9">
-        <v>6</v>
-      </c>
-      <c r="D9">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2048</v>
-      </c>
-      <c r="F9" s="1">
-        <v>512</v>
-      </c>
-      <c r="G9" s="1">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>128</v>
-      </c>
-      <c r="I9">
-        <v>64</v>
-      </c>
-      <c r="O9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
       </c>
       <c r="C10">
         <v>6</v>
@@ -953,13 +998,35 @@
       <c r="I10">
         <v>64</v>
       </c>
-      <c r="O10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J10" s="1">
+        <v>9.86</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2646</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>4.3879999999999999</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2938.3</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.59460000000000002</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.2458</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>-8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9</v>
       </c>
       <c r="C11">
         <v>6</v>
@@ -982,13 +1049,34 @@
       <c r="I11">
         <v>64</v>
       </c>
-      <c r="O11" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J11" s="1">
+        <v>16.515000000000001</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2427</v>
+      </c>
+      <c r="M11">
+        <v>4.66</v>
+      </c>
+      <c r="N11">
+        <v>2915.96</v>
+      </c>
+      <c r="O11">
+        <v>0.5827</v>
+      </c>
+      <c r="P11">
+        <v>2.3174000000000001</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>9</v>
       </c>
       <c r="C12">
         <v>6</v>
@@ -1011,13 +1099,34 @@
       <c r="I12">
         <v>64</v>
       </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
+      <c r="J12">
+        <v>22.54</v>
+      </c>
+      <c r="K12">
+        <v>2470</v>
+      </c>
+      <c r="M12">
+        <v>5.0010000000000003</v>
+      </c>
+      <c r="N12">
+        <v>3067</v>
+      </c>
+      <c r="O12">
+        <v>0.58530000000000004</v>
+      </c>
+      <c r="P12">
+        <v>2.2551000000000001</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1040,13 +1149,35 @@
       <c r="I13">
         <v>64</v>
       </c>
-      <c r="O13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" s="1">
+        <v>17.286000000000001</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1880</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>5.9480000000000004</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1801.8</v>
+      </c>
+      <c r="O13" s="1">
+        <v>0.57430000000000003</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.3018999999999998</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1069,13 +1200,34 @@
       <c r="I14">
         <v>64</v>
       </c>
-      <c r="O14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>16.515000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1876.8</v>
+      </c>
+      <c r="M14">
+        <v>5.6429999999999998</v>
+      </c>
+      <c r="N14">
+        <v>1970.2</v>
+      </c>
+      <c r="O14">
+        <v>0.58840000000000003</v>
+      </c>
+      <c r="P14">
+        <v>2.2574000000000001</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1098,13 +1250,34 @@
       <c r="I15">
         <v>64</v>
       </c>
-      <c r="O15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>17.286000000000001</v>
+      </c>
+      <c r="K15">
+        <v>1721.1</v>
+      </c>
+      <c r="M15">
+        <v>6.3280000000000003</v>
+      </c>
+      <c r="N15">
+        <v>1834.3</v>
+      </c>
+      <c r="O15">
+        <v>0.5806</v>
+      </c>
+      <c r="P15">
+        <v>2.3334000000000001</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1127,100 +1300,37 @@
       <c r="I16">
         <v>64</v>
       </c>
-      <c r="O16" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>17.286000000000001</v>
+      </c>
+      <c r="K16">
+        <v>1905.7</v>
+      </c>
+      <c r="M16">
+        <v>5.843</v>
+      </c>
+      <c r="N16">
+        <v>1949.3</v>
+      </c>
+      <c r="O16">
+        <v>0.57840000000000003</v>
+      </c>
+      <c r="P16">
+        <v>2.2804000000000002</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>-2.39</v>
+      </c>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>37</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Training.xlsx
+++ b/Training.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mubta\Desktop\Thesis_github\Thesis_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D394832D-2526-425B-A3D3-37EAB9ECE796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB2752F-1427-41B0-A9E1-409D06E9CEA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="-45" windowWidth="21600" windowHeight="11295" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{D416F89E-80D7-49C6-BC03-36484DB5BE47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Model</t>
   </si>
@@ -133,13 +134,97 @@
   </si>
   <si>
     <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Introduction</t>
+  </si>
+  <si>
+    <t>Research objective</t>
+  </si>
+  <si>
+    <t>Description of the models</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Data Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyper-parameters </t>
+  </si>
+  <si>
+    <t>Change encoder and heads</t>
+  </si>
+  <si>
+    <t>what models T R M G</t>
+  </si>
+  <si>
+    <t>Evalution BLEU Sparsity</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Efficiecny inference time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sparsity no effect </t>
+  </si>
+  <si>
+    <t>Train time inference time</t>
+  </si>
+  <si>
+    <t>over 500 sentences</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi Resnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Limitation </t>
+  </si>
+  <si>
+    <t>Future work</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>why its worse than single gates</t>
+  </si>
+  <si>
+    <t>2 - 3 m</t>
+  </si>
+  <si>
+    <t>5 m</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>GRANT</t>
+  </si>
+  <si>
+    <t>Gated Residual Attention Network Transformer</t>
+  </si>
+  <si>
+    <t>grant u permission</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>4m</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,13 +232,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -165,16 +274,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -489,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EC2F37C-B253-4492-9192-4387FFEA25BA}">
   <dimension ref="A1:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,6 +737,9 @@
       <c r="Q2" s="2">
         <v>0</v>
       </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -669,6 +790,9 @@
       <c r="Q3" s="2">
         <v>9.07</v>
       </c>
+      <c r="R3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -719,6 +843,9 @@
       <c r="Q4" s="2">
         <v>17.5</v>
       </c>
+      <c r="R4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -769,6 +896,9 @@
       <c r="Q5" s="2">
         <v>9.07</v>
       </c>
+      <c r="R5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -819,6 +949,9 @@
       <c r="Q6" s="2">
         <v>7.09</v>
       </c>
+      <c r="R6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -869,6 +1002,9 @@
       <c r="Q7" s="2">
         <v>7.21</v>
       </c>
+      <c r="R7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -919,6 +1055,9 @@
       <c r="Q8" s="2">
         <v>6.91</v>
       </c>
+      <c r="R8" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -969,6 +1108,9 @@
       <c r="Q9" s="2">
         <v>0</v>
       </c>
+      <c r="R9" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -1020,6 +1162,9 @@
       <c r="Q10" s="3">
         <v>-8.7899999999999991</v>
       </c>
+      <c r="R10" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1070,6 +1215,9 @@
       <c r="Q11" s="2">
         <v>0.2</v>
       </c>
+      <c r="R11" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1120,6 +1268,9 @@
       <c r="Q12" s="2">
         <v>-1.5</v>
       </c>
+      <c r="R12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1171,6 +1322,9 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
+      <c r="R13" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1221,6 +1375,9 @@
       <c r="Q14" s="2">
         <v>0.17</v>
       </c>
+      <c r="R14" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1271,6 +1428,9 @@
       <c r="Q15" s="2">
         <v>8.4499999999999993</v>
       </c>
+      <c r="R15" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1321,13 +1481,21 @@
       <c r="Q16" s="2">
         <v>-2.39</v>
       </c>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+      <c r="R16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="5:14" x14ac:dyDescent="0.25">
+      <c r="N17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1336,4 +1504,185 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309C58D6-8A56-4A67-8D33-8C81E0C892BE}">
+  <dimension ref="A1:E18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="6"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="6"/>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="E15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="E16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="6"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D11:D14"/>
+    <mergeCell ref="E15:E17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>